--- a/Data/EC/NIT-9003771760.xlsx
+++ b/Data/EC/NIT-9003771760.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3804E80F-1ECA-4BD0-B3AE-A90B08A1DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66B475F-1591-453A-9CDD-698249800543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FF7FAB7-5F3A-4703-A780-420394AF2936}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7F92A777-5746-4584-B6D6-D3EA14EB7E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,69 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7918338</t>
+  </si>
+  <si>
+    <t>NICOLAS DIAZ CASTELLANOS</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1128044024</t>
+  </si>
+  <si>
+    <t>WILFRIDO GARCIA PINTO</t>
+  </si>
+  <si>
+    <t>73200337</t>
+  </si>
+  <si>
+    <t>MAURICIO SILVA DE LA ROSA</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1002059020</t>
+  </si>
+  <si>
+    <t>SERGIO LUIS ARZUSA YEPES</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>1065822389</t>
   </si>
   <si>
@@ -74,67 +137,34 @@
     <t>2002</t>
   </si>
   <si>
-    <t>1128044024</t>
-  </si>
-  <si>
-    <t>WILFRIDO GARCIA PINTO</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1002059020</t>
-  </si>
-  <si>
-    <t>SERGIO LUIS ARZUSA YEPES</t>
-  </si>
-  <si>
-    <t>7918338</t>
-  </si>
-  <si>
-    <t>NICOLAS DIAZ CASTELLANOS</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>73200337</t>
-  </si>
-  <si>
-    <t>MAURICIO SILVA DE LA ROSA</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
+    <t>73594373</t>
+  </si>
+  <si>
+    <t>GERLHYN GODOY HERRERA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>73316545</t>
+  </si>
+  <si>
+    <t>JOSE ENRIQUE ALVAREZ MEDINA</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>1019041863</t>
@@ -143,31 +173,10 @@
     <t>DEIMAR ESQUIBEL ACOSTA</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>73316545</t>
-  </si>
-  <si>
-    <t>JOSE ENRIQUE ALVAREZ MEDINA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -581,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08DB9F7-5BEC-7E94-B967-0AE16751C2A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD59B96-A7EB-BE11-4FD1-1F09A16D1B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C299-105C-4BC7-8988-51C34E838887}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF71815-FA4D-44D1-B2F0-2FF59A8CEAF0}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>794936</v>
+        <v>828061</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1059,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19042</v>
+        <v>1170</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1130,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>15215</v>
@@ -1147,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>16386</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1176,13 +1185,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>1170</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1216,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F21" s="18">
-        <v>16386</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1239,10 +1248,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>22</v>
@@ -1262,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>23</v>
@@ -1285,10 +1294,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>24</v>
@@ -1308,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>25</v>
@@ -1331,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>26</v>
@@ -1354,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>27</v>
@@ -1377,10 +1386,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>28</v>
@@ -1400,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>29</v>
@@ -1423,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1446,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1469,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>19042</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1501,10 +1510,10 @@
         <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>14667</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1515,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1538,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>39</v>
@@ -1561,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>40</v>
@@ -1584,10 +1593,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>41</v>
@@ -1607,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>42</v>
@@ -1626,56 +1635,79 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="D39" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="24">
+        <v>14667</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C45" s="32"/>
       <c r="H45" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003771760.xlsx
+++ b/Data/EC/NIT-9003771760.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66B475F-1591-453A-9CDD-698249800543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0E04E7-B359-418A-9EA9-EABF0B9D72F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7F92A777-5746-4584-B6D6-D3EA14EB7E17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B746727-E162-4D00-900C-16937B45736D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1065822389</t>
+  </si>
+  <si>
+    <t>ANDRES CAMILO VARGAS RANGEL</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>7918338</t>
   </si>
   <si>
@@ -80,6 +89,12 @@
     <t>WILFRIDO GARCIA PINTO</t>
   </si>
   <si>
+    <t>1002059020</t>
+  </si>
+  <si>
+    <t>SERGIO LUIS ARZUSA YEPES</t>
+  </si>
+  <si>
     <t>73200337</t>
   </si>
   <si>
@@ -89,61 +104,49 @@
     <t>2008</t>
   </si>
   <si>
-    <t>1002059020</t>
-  </si>
-  <si>
-    <t>SERGIO LUIS ARZUSA YEPES</t>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
   </si>
   <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1065822389</t>
-  </si>
-  <si>
-    <t>ANDRES CAMILO VARGAS RANGEL</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>73594373</t>
-  </si>
-  <si>
-    <t>GERLHYN GODOY HERRERA</t>
-  </si>
-  <si>
-    <t>1912</t>
+    <t>1019041863</t>
+  </si>
+  <si>
+    <t>DEIMAR ESQUIBEL ACOSTA</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
   </si>
   <si>
     <t>73316545</t>
@@ -152,31 +155,19 @@
     <t>JOSE ENRIQUE ALVAREZ MEDINA</t>
   </si>
   <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1019041863</t>
-  </si>
-  <si>
-    <t>DEIMAR ESQUIBEL ACOSTA</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -275,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD59B96-A7EB-BE11-4FD1-1F09A16D1B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE72117-46EF-6AD6-10DD-669D7F862430}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF71815-FA4D-44D1-B2F0-2FF59A8CEAF0}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA82730-4672-4F06-BBB4-30DB92786B46}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -966,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1043,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>828061</v>
+        <v>794936</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1096,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1119,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1170</v>
+        <v>19042</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1139,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>15215</v>
+        <v>1170</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1156,16 +1147,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>16386</v>
+        <v>15215</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1185,7 +1176,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1202,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>16386</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1438,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1461,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1478,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>19042</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,10 +1501,10 @@
         <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>14667</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1524,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1547,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>39</v>
@@ -1570,10 +1561,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>40</v>
@@ -1593,10 +1584,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>41</v>
@@ -1616,10 +1607,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>42</v>
@@ -1635,79 +1626,56 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="24">
-        <v>14667</v>
-      </c>
-      <c r="G40" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="F39" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45" s="32"/>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003771760.xlsx
+++ b/Data/EC/NIT-9003771760.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0E04E7-B359-418A-9EA9-EABF0B9D72F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4301E664-47E7-4CF1-A3E8-6E6F532EF1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B746727-E162-4D00-900C-16937B45736D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{508F668E-5546-44BA-86BE-30A9E9C08718}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -281,7 +279,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,29 +475,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,19 +516,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE72117-46EF-6AD6-10DD-669D7F862430}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3009DB-8710-4130-6906-0CFC3FFA8CD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA82730-4672-4F06-BBB4-30DB92786B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016815B-C7E8-4689-B04D-BE554FB979FC}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -955,49 +961,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1005,7 +1011,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003771760</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>794936</v>
       </c>
@@ -1106,18 +1112,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>19042</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1129,18 +1135,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>1170</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1152,18 +1158,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>15215</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>877803</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1175,18 +1181,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>35112</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>16386</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>877803</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>35112</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>35112</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>35112</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1359,18 +1365,18 @@
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>35112</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1382,18 +1388,18 @@
       <c r="D28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>35112</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1405,18 +1411,18 @@
       <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>35112</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1428,18 +1434,18 @@
       <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>35112</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1000000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1451,18 +1457,18 @@
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>35112</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1000000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1474,18 +1480,18 @@
       <c r="D32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>35112</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1000000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1497,18 +1503,18 @@
       <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>14667</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1000000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1520,18 +1526,18 @@
       <c r="D34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>40000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1000000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1543,18 +1549,18 @@
       <c r="D35" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>46400</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1160000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1566,18 +1572,18 @@
       <c r="D36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>46400</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1160000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1589,18 +1595,18 @@
       <c r="D37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>46400</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1160000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1612,47 +1618,47 @@
       <c r="D38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>46400</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1160000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="26">
         <v>46400</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="26">
         <v>1160000</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="34"/>
       <c r="H44" s="1" t="s">
         <v>53</v>
       </c>
@@ -1660,10 +1666,10 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="34"/>
       <c r="H45" s="1" t="s">
         <v>54</v>
       </c>
